--- a/biology/Médecine/Réduction_du_stress_basée_sur_la_pleine_conscience/Réduction_du_stress_basée_sur_la_pleine_conscience.xlsx
+++ b/biology/Médecine/Réduction_du_stress_basée_sur_la_pleine_conscience/Réduction_du_stress_basée_sur_la_pleine_conscience.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9duction_du_stress_bas%C3%A9e_sur_la_pleine_conscience</t>
+          <t>Réduction_du_stress_basée_sur_la_pleine_conscience</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La réduction du stress basée sur la pleine conscience (en anglais Mindfulness-based stress reduction (MBSR)) est un programme de formation laïque, basé sur la pleine conscience, visant à aider les personnes souffrant de stress, d'anxiété, de dépression et de douleur. Les programmes peuvent être intensif – durant plusieurs semaines – ou moins longs – quelques heures hebdomadaires[1].  
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La réduction du stress basée sur la pleine conscience (en anglais Mindfulness-based stress reduction (MBSR)) est un programme de formation laïque, basé sur la pleine conscience, visant à aider les personnes souffrant de stress, d'anxiété, de dépression et de douleur. Les programmes peuvent être intensif – durant plusieurs semaines – ou moins longs – quelques heures hebdomadaires.  
 Il s'agit d'une approche pratique visant à stimuler l'attention, permettant aux participants de cultiver leur conscience de soi, ce qui permettrait d'avoir plus de choix et de pouvoir prendre des actions plus sages dans leur vie.   
-Développé au centre médical de l'Université du Massachusetts dans les années 1970 par le professeur Jon Kabat-Zinn, le programme combine la pratique de la méditation de pleine conscience, parfois du yoga, ainsi que des cours sur le stress et la façon de le gérer[1]. 
-La pratique de la pleine conscience a fait ces vingt dernières années de recherches cliniques[2] suggérant des effets bénéfiques[3]. Il existe à ce jour des preuves modérées de l'efficacité de la MBSR sur l'amélioration de la gestion du stress ; son impact bénéfique sur la qualité de vie, par rapport à des groupes de contrôle, semble être établi[1]. Il ne semble pas efficace sur la prévention des troubles cognitifs de la personne âgée[4].
+Développé au centre médical de l'Université du Massachusetts dans les années 1970 par le professeur Jon Kabat-Zinn, le programme combine la pratique de la méditation de pleine conscience, parfois du yoga, ainsi que des cours sur le stress et la façon de le gérer. 
+La pratique de la pleine conscience a fait ces vingt dernières années de recherches cliniques suggérant des effets bénéfiques. Il existe à ce jour des preuves modérées de l'efficacité de la MBSR sur l'amélioration de la gestion du stress ; son impact bénéfique sur la qualité de vie, par rapport à des groupes de contrôle, semble être établi. Il ne semble pas efficace sur la prévention des troubles cognitifs de la personne âgée.
 </t>
         </is>
       </c>
